--- a/myapp/www/Aplikasi Panel Data Regression pada Data IDX.xlsx
+++ b/myapp/www/Aplikasi Panel Data Regression pada Data IDX.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STATCAL VERSI ONLINE\STATCAL FOR IDX\aplikasi\myapp\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STATCAL VERSI ONLINE\STATCAL FOR IDX\APLIKASI METODE STATISTIK DALAM DATA IDX\Panel Data Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976054D1-A9C6-42AA-AC09-7B39855CF56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CECDE6B-5E06-4CA6-8CAB-E85C5329DC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="108">
   <si>
     <t>Journal or Conference</t>
   </si>
@@ -172,6 +172,185 @@
   </si>
   <si>
     <t>Yes (Sinta 2)</t>
+  </si>
+  <si>
+    <t>Using purposive sampling, the research sample is from manufacturing companies listed on the Indonesia Stock Exchange from 2016 to 2020, obtaining 325 observations</t>
+  </si>
+  <si>
+    <t>Cost Of Capital, Corporate Tax Plannings, And Corporate Social Responsibility Disclosure</t>
+  </si>
+  <si>
+    <t>Adhitya Jati Purwaka, Amrie Firmansyah, Resi Ariyasa Qadri, Agung Dinarjito, Zef Arfiansyah</t>
+  </si>
+  <si>
+    <t>Jurnal Akuntansi</t>
+  </si>
+  <si>
+    <t>multiple linear regression for panel data</t>
+  </si>
+  <si>
+    <t>Yes (Corporate Social Responsibility)</t>
+  </si>
+  <si>
+    <t>https://ecojoin.org/index.php/EJA/article/view/814</t>
+  </si>
+  <si>
+    <t>Dalam artikel, tidak disebutkan menggunakan software apa. Namun dari bentuk output, sepertinya menggunakan software Eviews. Kemudian dalam artikel, dilakukan uji chow, hausman, lagrange, namun, tabel nya tidak ada</t>
+  </si>
+  <si>
+    <t>Tax Avoidance, Tax Aggressiveness, Tax Risk, Cost of Capital, Corporate Social Responsibility, Control Variable: Leverage, Firm Size and Profitability</t>
+  </si>
+  <si>
+    <t>https://www.ijtef.com/index.php?m=content&amp;c=index&amp;a=show&amp;catid=96&amp;id=970</t>
+  </si>
+  <si>
+    <t>International Journal of Trade, Economics and Finance</t>
+  </si>
+  <si>
+    <t>The Determinant of Stock Price at the Banking Sub-Sector Company in Indonesia Stock Exchange</t>
+  </si>
+  <si>
+    <t>Kukuh Hadi Prayogo, Etty Puji Lestari</t>
+  </si>
+  <si>
+    <t>The sample in this research is the banking subsector company listed in the Stock Exchange of Indonesia with the complete publication of financial report in 2012 - 2016. The sampling technique used in this research is purposive random sampling, it means that the determination of the sample based on certain criteria that have been determined.</t>
+  </si>
+  <si>
+    <t>Stock Price, Return on Assets (ROA), Earning per Share (EPS), Price to Earning Ratio (PER)</t>
+  </si>
+  <si>
+    <t>https://growingscience.com/beta/msl/3249-analysis-of-factors-affecting-stock-prices-in-mining-sector-evidence-from-indonesia-stock-exchange.html</t>
+  </si>
+  <si>
+    <t>Management Science Letters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis of factors affecting stock prices in mining sector: Evidence from Indonesia Stock Exchange </t>
+  </si>
+  <si>
+    <t>Zakia Maulida Antono, Adam Amril Jaharadak, Abdul Ali Khatibi</t>
+  </si>
+  <si>
+    <t>Secondary data from Annual Reports of Indonesia Stock Exchange (IDX), Energy Information Administration (EIA), and Bank Indonesia are used as the sources of data analysis. 35 mining companies are selected as samples from four mining sub-sectors; namely coal, oil &amp; gas, other metal &amp; mineral, and rock</t>
+  </si>
+  <si>
+    <t>Stock Prices, Price to Earnings Ratio (PER), World Oil Price, Inflation, Exchange Rate</t>
+  </si>
+  <si>
+    <t>Pernah Terindeks Scopus, Namun uda Diskontinu. Kemudian ada kalimat yang menyatakan uda memenuhi asumsi klasik, namun tabel hasil asumsi klasik tidak ada di artikel</t>
+  </si>
+  <si>
+    <t>JIAFE (Jurnal Ilmiah Akuntansi Fakultas Ekonomi)</t>
+  </si>
+  <si>
+    <t>THE EFFECT OF FINANCIAL PERFORMANCE ON STOCK PRICE AT PHARMACEUTICAL SUB-SECTOR COMPANY LISTED IN INDONESIA STOCK EXCHANGE</t>
+  </si>
+  <si>
+    <t>Edhi Asmirantho, Oktiviani Kusumah Somantri</t>
+  </si>
+  <si>
+    <t>from 10 companies to produce 8 sample data of Pharmaceutical Sub sector (Industry of Goods and Consumption) listed in Indonesia Stock Exchange are as follows:</t>
+  </si>
+  <si>
+    <t>Stock Price, Current Ratio, Debt to Equity Ratio, Total Asset Turnover, Return on Equity, Earning per Share</t>
+  </si>
+  <si>
+    <t>https://journal.unpak.ac.id/index.php/jiafe/article/view/778</t>
+  </si>
+  <si>
+    <t>Yes (Matriks Korelasi)</t>
+  </si>
+  <si>
+    <t>Yes (Sinta 3)</t>
+  </si>
+  <si>
+    <t>Jurnal Aset (Akuntansi Riset)</t>
+  </si>
+  <si>
+    <t>Measuring Debt-Profit Relation: Evidence in Energy Sector from Indonesia Stock Exchange</t>
+  </si>
+  <si>
+    <t>Ardhiani Fadila, M Marlina, Alfida Aziz</t>
+  </si>
+  <si>
+    <t>This research aims to assess the impact of debt utilization on the performance of companies listed on the Indonesia Stock Exchange during the period of 2012-2021. Panel data analysis is employed to analyze 35 companies operating in the energy sector,</t>
+  </si>
+  <si>
+    <t>Variabel Dependennya Ada 3, ROA, ROE, dan ROS</t>
+  </si>
+  <si>
+    <t>Return on Asset, Return on Equity, Return on Sales, Short-Term Debt (STD), Long-term Debt (LTD), Tangibility, Firm Size, Sales Growth, Exchange Rate, Lending Rate</t>
+  </si>
+  <si>
+    <t>https://ejournal.upi.edu/index.php/aset/article/view/60789</t>
+  </si>
+  <si>
+    <t>Pengaruh Debt to Equity Ratio, Return on Assets, dan Return on Equity Terhadap Harga Saham pada Perusahaan Properti dan Real Estate di Bursa Efek Indonesia Periode 2018-2023</t>
+  </si>
+  <si>
+    <t>Indo-Fintech Intellectuals: Journal of Economics and Business</t>
+  </si>
+  <si>
+    <t>Rafli Ahmad Adzikri</t>
+  </si>
+  <si>
+    <t>Stata</t>
+  </si>
+  <si>
+    <t>The population of this study consists of property and real estate companies listed on the Indonesia Stock Exchange. The sample was selected using purposive sampling, comprising 10 companies based on their financial reports from 2018 to 2023, resulting in 60 data points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harga Saham, Debt to Equity Ratio, Return on Assets, Return on Equity
+</t>
+  </si>
+  <si>
+    <t>https://ejournal.indo-intellectual.id/index.php/ifi/article/view/1393</t>
+  </si>
+  <si>
+    <t>Yes (Sinta 5)</t>
+  </si>
+  <si>
+    <t>Dilihat pada tabel 5 nilai prob &gt; nilai signifikansi yaitu 0.01421 &lt; 0.05, Maka daripada itu dapat  ditarik kesimpulan  bahwa  data  yang  dipakai  dalam  studi  ini  tidak  mengikuti  distribusi normal.  Namun,  menurut  teorema  limit  pusat  (central  limit  theorem),  data  dengan  jumlah sampel  lebih  dari  30  dianggap  mengikuti  distribusi  normal  yang  dimana  data  penelitian  ini berjumlah 60. (R-Squares 34.66%)</t>
+  </si>
+  <si>
+    <t>Share Ownership by Foreign Investor, EPS, PER, PBV, ROE, DER, Dividend, Beta</t>
+  </si>
+  <si>
+    <t>The Influence of Financial Ratio and Beta on Share Ownership by Foreign Investors in Companies Listed on ISSI</t>
+  </si>
+  <si>
+    <t>Muhammad Al Faridho Awwal, Lia Lubina</t>
+  </si>
+  <si>
+    <t>International Journal of Business, Law, and Education</t>
+  </si>
+  <si>
+    <t>The data source used is secondary data taken from non-financial company financial report data for the 2015 to 2018 period for the portion of foreign share ownership, and for financial ratios (EPS, PER, PBV, ROE, DER and dividend yield) which can be downloaded via the websitewww.idx.co.id or you can go through the website www.investing.com. Then the stock beta for each company comes from the website www.idx.co.id.</t>
+  </si>
+  <si>
+    <t>http://www.ijble.com/index.php/journal/article/view/373</t>
+  </si>
+  <si>
+    <t>Journal of Research and Technology (JRT)</t>
+  </si>
+  <si>
+    <t>Managerial Ability and ESG Performance: A Panel Data Analysis of Non-Financial Companies on The Indonesia Stock Exchange (2018-2021)</t>
+  </si>
+  <si>
+    <t>Geodita Woro Bramanti, Andi Hakim, Sri Yayu Ninglasari, Berto Mulia Wibawa, Ninditya Nareswari, Aang Kunaifi, Gogor Arif Handiwibowo</t>
+  </si>
+  <si>
+    <t>https://journal.unusida.ac.id/index.php/jrt/article/view/1373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within the framework of hypothesis testing, the classical assumption tests play a crucial role in verifying that the regression model employed is the most optimal and unbiased estimator, known as the Best Linear Unbiased Estimator (BLUE). However, if assumptions like homoscedasticity and absence of autocorrelation are not met, the results can be skewed and less effective. Gujarati and Porter (2009) suggest employing the Generalized Least Squares (GLS) technique to tackle concerns such as heteroscedasticity and autocorrelation. 
+</t>
+  </si>
+  <si>
+    <t>This study employed panel data regression methods to examine data from 825 non-financial companies that were publicly traded on the Indonesia Stock Exchange between 2018 and 2021.</t>
+  </si>
+  <si>
+    <t>Managerial Ability (ABLT), SIZE, ROE, ESG performance</t>
   </si>
 </sst>
 </file>
@@ -505,10 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:T1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,7 +709,7 @@
     <col min="18" max="18" width="32.90625" style="1" customWidth="1"/>
     <col min="19" max="19" width="14.81640625" style="1" customWidth="1"/>
     <col min="20" max="20" width="15.6328125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="35.54296875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="52.26953125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -793,11 +973,530 @@
         <v>47</v>
       </c>
     </row>
+    <row r="5" spans="1:21" ht="165" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{50A34ACC-7635-4696-B316-FF37CDAC22DF}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{75ADAE99-7171-4253-A88E-142E7DD22D17}"/>
     <hyperlink ref="K4" r:id="rId3" xr:uid="{E82288AE-CE64-4D0F-8FF9-4BB61AA1F1BE}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{B28686DB-52E7-4F2F-9ABA-414F057BF9CC}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{D7FFD058-B8D4-42AB-8A7B-2EA0DC224645}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{48F8FCFF-430D-426D-902C-3B509DB91C54}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{685DE618-D206-4E4E-B916-A2361BCC67FF}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{ED139D5A-5CEE-46BD-89B3-06471F037F2B}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{8EB5DA2B-25F3-4E30-8783-3A858976991E}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{5D41DF01-5040-45F2-B485-BBCC05BF4666}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{BC9B2BBE-3ECA-443D-ABA3-D853AA5C1DAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myapp/www/Aplikasi Panel Data Regression pada Data IDX.xlsx
+++ b/myapp/www/Aplikasi Panel Data Regression pada Data IDX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STATCAL VERSI ONLINE\STATCAL FOR IDX\APLIKASI METODE STATISTIK DALAM DATA IDX\Panel Data Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CECDE6B-5E06-4CA6-8CAB-E85C5329DC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB48F3A-0F5A-47EC-AAE3-FBC575BF6549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="125">
   <si>
     <t>Journal or Conference</t>
   </si>
@@ -351,6 +351,58 @@
   </si>
   <si>
     <t>Managerial Ability (ABLT), SIZE, ROE, ESG performance</t>
+  </si>
+  <si>
+    <t>The object of this research is financial distress, leverage, capital intensity, size and tax avoidance in property and real estate companies listed on the Indonesia Stock Exchange (IDX) in 2019-2023. The location of this research was conducted at the Indonesia Stock Exchange (IDX) Stock Exchange by visiting the official website, namely www.idx.co.id</t>
+  </si>
+  <si>
+    <t>FACTORS AFFECTING TAX AVOIDANCE IN PROPERTY AND REAL ESTATE COMPANIES LISTED ON THE INDONESIA STOCK EXCHANGE</t>
+  </si>
+  <si>
+    <t>Ikhsan Nur Ilham, Ghazali Syamni, Wahyuddin, Husaini</t>
+  </si>
+  <si>
+    <t>Journal of Accounting Research, Utility Finance and Digital Assets (JARUDA)</t>
+  </si>
+  <si>
+    <t>http://jaruda.org/index.php/go/article/view/207</t>
+  </si>
+  <si>
+    <t>1. Uji Normalitas Dilakukan per Variabel.
+So it can be concluded that the data in this study is not normally distributed.</t>
+  </si>
+  <si>
+    <t>Financial Distress, Leverage, Capital Intensity, Size, Tax Avoidance</t>
+  </si>
+  <si>
+    <t>This study employed a purposive sampling technique involving 24 property and real estate corporations listed on the Indonesia Stock Exchange from 2019 to 2022, resulting in a dataset of 96 observations</t>
+  </si>
+  <si>
+    <t>FIXED ASSETS OPTIMIZATION TO INCREASE RECURRING INCOME IN THE PROPERTY AND REAL ESTATE SECTOR</t>
+  </si>
+  <si>
+    <t>Jurnal Akuntansi Bisnis</t>
+  </si>
+  <si>
+    <t>Meliana Kristin Ongkowijoyo, Cliff Kohardinata</t>
+  </si>
+  <si>
+    <t>https://journal.ubm.ac.id/index.php/akuntansi-bisnis/article/view/5429</t>
+  </si>
+  <si>
+    <t>Conceptual Framework</t>
+  </si>
+  <si>
+    <t>Recuring Income, Cash on Hand, Liabilities, Fixed Assets</t>
+  </si>
+  <si>
+    <t>Notes 2</t>
+  </si>
+  <si>
+    <t>This study used panel data regression analysis technique with Stata 13 software and applied panel data regression assumption tests, which included autocorrelation, multicollinearity, and heteroscedasticity tests. Normality test on the fixed effect model was not performed, because the fixed effect assumption can overcome individual heterogeneity without requiring normality on the error term (Mehmetoglu &amp; Jakobsen, 2022). In addition, robust standard error was used to overcome heteroscedasticity that appeared in research data.</t>
+  </si>
+  <si>
+    <t>Next, the Wald Test wase conducted to test heteroscedasticity and the results show the value of Prob&gt; chi2 is &lt;0.05 by 0.00, which means that there is a symptom of heteroscedasticity. Therefore, to overcome the problem of heteroscedasticity, robust standard error test was used.</t>
   </si>
 </sst>
 </file>
@@ -684,11 +736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -710,10 +762,12 @@
     <col min="19" max="19" width="14.81640625" style="1" customWidth="1"/>
     <col min="20" max="20" width="15.6328125" style="1" customWidth="1"/>
     <col min="21" max="21" width="52.26953125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="1"/>
+    <col min="22" max="22" width="25.54296875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="56.36328125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,8 +831,14 @@
       <c r="U1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -843,7 +903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -908,7 +968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -973,7 +1033,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="165" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -1038,7 +1098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -1100,7 +1160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -1165,7 +1225,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -1227,7 +1287,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -1292,7 +1352,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="116" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -1357,7 +1417,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -1419,7 +1479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>101</v>
       </c>
@@ -1482,6 +1542,142 @@
       </c>
       <c r="U12" s="1" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1497,6 +1693,8 @@
     <hyperlink ref="K10" r:id="rId9" xr:uid="{8EB5DA2B-25F3-4E30-8783-3A858976991E}"/>
     <hyperlink ref="K11" r:id="rId10" xr:uid="{5D41DF01-5040-45F2-B485-BBCC05BF4666}"/>
     <hyperlink ref="K12" r:id="rId11" xr:uid="{BC9B2BBE-3ECA-443D-ABA3-D853AA5C1DAD}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{2C38D031-7861-486B-96F6-69E97AAE3ECC}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{1386FD63-98D2-421C-8E46-84E11B5159B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
